--- a/chapter03/엑셀다루기/참가자_data.xlsx
+++ b/chapter03/엑셀다루기/참가자_data.xlsx
@@ -555,18 +555,18 @@
       </c>
     </row>
     <row r="2">
-      <c r="B2" t="n">
-        <v>118000</v>
+      <c r="B2" s="0" t="n">
+        <v>120500</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" t="n">
-        <v>57300</v>
+      <c r="B3" s="0" t="n">
+        <v>59400</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="n">
-        <v>79900</v>
+      <c r="B4" s="0" t="n">
+        <v>88600</v>
       </c>
     </row>
   </sheetData>
